--- a/ConceptMap-R5-CapabilityStatement-elements-for-R4-CapabilityStatement.xlsx
+++ b/ConceptMap-R5-CapabilityStatement-elements-for-R4-CapabilityStatement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="280">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.5062037-06:00</t>
+    <t>2026-02-17T14:42:27.0137348-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -741,30 +741,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement#CapabilityStatement.rest.searchParam</t>
   </si>
   <si>
-    <t>CapabilityStatement.rest.searchParam.name</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement#CapabilityStatement.rest.searchParam.name</t>
-  </si>
-  <si>
-    <t>CapabilityStatement.rest.searchParam.definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement#CapabilityStatement.rest.searchParam.definition</t>
-  </si>
-  <si>
-    <t>CapabilityStatement.rest.searchParam.type</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement#CapabilityStatement.rest.searchParam.type</t>
-  </si>
-  <si>
-    <t>CapabilityStatement.rest.searchParam.documentation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement#CapabilityStatement.rest.searchParam.documentation</t>
-  </si>
-  <si>
     <t>CapabilityStatement.rest.operation</t>
   </si>
   <si>
@@ -789,12 +765,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement#CapabilityStatement.messaging</t>
   </si>
   <si>
-    <t>CapabilityStatement.rest.operation.name</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement#CapabilityStatement.rest.operation.name</t>
-  </si>
-  <si>
     <t>CapabilityStatement.messaging.endpoint</t>
   </si>
   <si>
@@ -802,18 +772,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement#CapabilityStatement.messaging.endpoint</t>
-  </si>
-  <si>
-    <t>CapabilityStatement.rest.operation.definition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement#CapabilityStatement.rest.operation.definition</t>
-  </si>
-  <si>
-    <t>CapabilityStatement.rest.operation.documentation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CapabilityStatement#CapabilityStatement.rest.operation.documentation</t>
   </si>
   <si>
     <t>CapabilityStatement.messaging.endpoint.protocol</t>
@@ -1151,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2208,7 +2166,7 @@
         <v>242</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -2221,273 +2179,182 @@
         <v>244</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>271</v>
+        <v>143</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E95" s="2"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="E102" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
